--- a/po_analysis_by_asin/B091HTG6DQ_po_data.xlsx
+++ b/po_analysis_by_asin/B091HTG6DQ_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,321 +452,617 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44941.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>1710</v>
+        <v>560</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>44948.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>1080</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>44955.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>1050</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45313</v>
+        <v>44962.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>420</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45320</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>1350</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45327</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>2010</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45334</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>1050</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45341</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>1560</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45348</v>
+        <v>45018.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>1620</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45355</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>960</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45362</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>280</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45369</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>410</v>
+        <v>570</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45376</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>660</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45383</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>960</v>
+        <v>520</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45390</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>600</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45397</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>1700</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45404</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>1580</v>
+        <v>680</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45411</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>1700</v>
+        <v>730</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45418</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>2180</v>
+        <v>660</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45425</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>3680</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45432</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>100</v>
+        <v>410</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45439</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>1860</v>
+        <v>840</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45446</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>1640</v>
+        <v>480</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45453</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>2200</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45460</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>4460</v>
+        <v>890</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45467</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>1040</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45481</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>1800</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45488</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>3700</v>
+        <v>660</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45495</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>1220</v>
+        <v>760</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45502</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>2240</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45509</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>2020</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45516</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45523</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>2920</v>
+        <v>760</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45544</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>2460</v>
+        <v>750</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45551</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>2100</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45558</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>680</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45565</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>1420</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45572</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>3420</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45579</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>5100</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45593</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B41" t="n">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>3680</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>4460</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B68" t="n">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B69" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B71" t="n">
+        <v>2920</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B72" t="n">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B73" t="n">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B74" t="n">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B76" t="n">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B77" t="n">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B78" t="n">
         <v>1860</v>
       </c>
     </row>
@@ -781,7 +1077,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -803,81 +1099,177 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44957.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>5610</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>44985.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>6240</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45016.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>2310</v>
+        <v>760</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>4840</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>9520</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>9340</v>
+        <v>3740</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>8960</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45169.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>6840</v>
+        <v>3950</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45536</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>5240</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45566</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B11" t="n">
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45260.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45322.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45351.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>6240</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4840</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>9520</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>9340</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45504.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>8960</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>6840</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5240</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B23" t="n">
         <v>11800</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B091HTG6DQ_po_data.xlsx
+++ b/po_analysis_by_asin/B091HTG6DQ_po_data.xlsx
@@ -615,7 +615,7 @@
         <v>45116.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>410</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23">
@@ -1150,7 +1150,7 @@
         <v>45138.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>1730</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="9">

--- a/po_analysis_by_asin/B091HTG6DQ_po_data.xlsx
+++ b/po_analysis_by_asin/B091HTG6DQ_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1093,7 +1094,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -1271,6 +1272,1237 @@
       </c>
       <c r="B23" t="n">
         <v>11800</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D86"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44941.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>136</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1019.710561551587</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1208.142410817111</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44948.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>160</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-923.8386116780616</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1264.281285489657</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>183</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-811.1700320671538</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1285.569360024796</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44962.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>206</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-898.0877855225391</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1343.899557685766</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44976.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>253</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-781.5075432704537</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1363.78921807806</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>300</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-796.1526197583029</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1369.952470827086</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>324</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-733.6881176857344</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1428.836863139327</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>347</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-686.5377827279358</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1411.150875724294</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>394</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-706.2651036296493</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1450.774707883298</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>417</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-561.369892059844</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1436.886759059493</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>441</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-546.4130556011286</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1512.416307196695</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>464</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-608.4590547113453</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1443.950710123981</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>488</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-605.0666749460955</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1547.834382943766</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>511</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-589.0269537892642</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1622.679417707264</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>534</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-581.6237158962268</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1566.0885273125</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>558</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-496.3433892326765</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1613.090997183738</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>628</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-433.0798608181824</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1748.640175554808</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>652</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-423.1402418773943</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1696.437079844617</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>675</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-470.7581577751814</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1679.026351590082</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>699</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-269.8390263352674</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1778.566805547465</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>722</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-274.5501566806174</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1844.441678678397</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>745</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-365.1587773600219</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1825.668673990429</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>769</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-301.9464805713115</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1917.965301257516</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>816</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-179.5908542251864</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1913.814646261444</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>863</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-212.083035157442</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1934.678470892075</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>886</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-210.6968322237452</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1856.577066504712</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>933</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-133.9163527571277</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2039.227340888072</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>956</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-111.6570486859609</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2055.334950027684</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1003</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-82.81016162297871</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2119.999379752697</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1027</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-29.2558961968464</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2015.12481827106</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1050</v>
+      </c>
+      <c r="C32" t="n">
+        <v>51.16267305871173</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2103.362694790033</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1073</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-41.44524747931837</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2126.856069340157</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1167</v>
+      </c>
+      <c r="C34" t="n">
+        <v>60.03396507315716</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2220.390173142905</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1191</v>
+      </c>
+      <c r="C35" t="n">
+        <v>111.0870424414452</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2327.885966020684</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1214</v>
+      </c>
+      <c r="C36" t="n">
+        <v>159.5635766073236</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2328.387228583072</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1237</v>
+      </c>
+      <c r="C37" t="n">
+        <v>245.5999198851346</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2323.525357089067</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1261</v>
+      </c>
+      <c r="C38" t="n">
+        <v>210.5945100645924</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2297.351434876816</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1331</v>
+      </c>
+      <c r="C39" t="n">
+        <v>308.783446092827</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2391.987713470199</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1355</v>
+      </c>
+      <c r="C40" t="n">
+        <v>339.0572928542383</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2463.21857287062</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1378</v>
+      </c>
+      <c r="C41" t="n">
+        <v>270.7723414993004</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2484.092086283807</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1402</v>
+      </c>
+      <c r="C42" t="n">
+        <v>358.3940618588675</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2354.698329143563</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1425</v>
+      </c>
+      <c r="C43" t="n">
+        <v>266.9551888471149</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2456.78912073663</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1448</v>
+      </c>
+      <c r="C44" t="n">
+        <v>407.55506823853</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2508.107696876227</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1472</v>
+      </c>
+      <c r="C45" t="n">
+        <v>363.4502129535528</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2530.047671091711</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1495</v>
+      </c>
+      <c r="C46" t="n">
+        <v>346.6856471598484</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2621.513763330339</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1519</v>
+      </c>
+      <c r="C47" t="n">
+        <v>410.2489276783133</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2636.060132768826</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1542</v>
+      </c>
+      <c r="C48" t="n">
+        <v>495.4784660207414</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2648.092111875223</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1566</v>
+      </c>
+      <c r="C49" t="n">
+        <v>464.078349548729</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2638.005590842937</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1589</v>
+      </c>
+      <c r="C50" t="n">
+        <v>548.3906254607745</v>
+      </c>
+      <c r="D50" t="n">
+        <v>2656.416074700501</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1612</v>
+      </c>
+      <c r="C51" t="n">
+        <v>518.948410794071</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2766.249945660742</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1636</v>
+      </c>
+      <c r="C52" t="n">
+        <v>490.157285330218</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2753.791713870463</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1659</v>
+      </c>
+      <c r="C53" t="n">
+        <v>570.2493164914935</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2646.920742481278</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1683</v>
+      </c>
+      <c r="C54" t="n">
+        <v>576.1185222495171</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2760.027326587056</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1706</v>
+      </c>
+      <c r="C55" t="n">
+        <v>623.2336678990733</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2766.390083962171</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1730</v>
+      </c>
+      <c r="C56" t="n">
+        <v>625.479166175606</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2741.053569804774</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1753</v>
+      </c>
+      <c r="C57" t="n">
+        <v>653.0999613540989</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2816.845852693689</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1776</v>
+      </c>
+      <c r="C58" t="n">
+        <v>731.3067825200661</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2854.357120639715</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C59" t="n">
+        <v>624.1717999501366</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2855.333955384375</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1823</v>
+      </c>
+      <c r="C60" t="n">
+        <v>784.985300606537</v>
+      </c>
+      <c r="D60" t="n">
+        <v>2899.230162258582</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1847</v>
+      </c>
+      <c r="C61" t="n">
+        <v>728.0335711652308</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2908.164653392329</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1870</v>
+      </c>
+      <c r="C62" t="n">
+        <v>854.4958023558954</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2936.777874017107</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1894</v>
+      </c>
+      <c r="C63" t="n">
+        <v>855.4319371148114</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2992.695146353601</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1917</v>
+      </c>
+      <c r="C64" t="n">
+        <v>813.2829867439596</v>
+      </c>
+      <c r="D64" t="n">
+        <v>3048.356713955393</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1964</v>
+      </c>
+      <c r="C65" t="n">
+        <v>913.4786929544647</v>
+      </c>
+      <c r="D65" t="n">
+        <v>3039.524731329479</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1987</v>
+      </c>
+      <c r="C66" t="n">
+        <v>900.409576594041</v>
+      </c>
+      <c r="D66" t="n">
+        <v>3044.547196753142</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C67" t="n">
+        <v>971.4174366419354</v>
+      </c>
+      <c r="D67" t="n">
+        <v>3038.079333969632</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B68" t="n">
+        <v>2034</v>
+      </c>
+      <c r="C68" t="n">
+        <v>997.9864563085441</v>
+      </c>
+      <c r="D68" t="n">
+        <v>3149.75096277698</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B69" t="n">
+        <v>2058</v>
+      </c>
+      <c r="C69" t="n">
+        <v>992.4107314518574</v>
+      </c>
+      <c r="D69" t="n">
+        <v>3110.077998846202</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B70" t="n">
+        <v>2081</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1036.114147150108</v>
+      </c>
+      <c r="D70" t="n">
+        <v>3146.153845713038</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B71" t="n">
+        <v>2105</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1010.231981558529</v>
+      </c>
+      <c r="D71" t="n">
+        <v>3198.458064691179</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B72" t="n">
+        <v>2175</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1166.522518698401</v>
+      </c>
+      <c r="D72" t="n">
+        <v>3286.166734689829</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B73" t="n">
+        <v>2198</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1105.624009539906</v>
+      </c>
+      <c r="D73" t="n">
+        <v>3374.8731351469</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B74" t="n">
+        <v>2222</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1187.554697442598</v>
+      </c>
+      <c r="D74" t="n">
+        <v>3394.72196755311</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B75" t="n">
+        <v>2245</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1243.894812128134</v>
+      </c>
+      <c r="D75" t="n">
+        <v>3318.392272979681</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B76" t="n">
+        <v>2269</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1152.337558714035</v>
+      </c>
+      <c r="D76" t="n">
+        <v>3334.153796713797</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B77" t="n">
+        <v>2292</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1259.572196455808</v>
+      </c>
+      <c r="D77" t="n">
+        <v>3388.424546240827</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B78" t="n">
+        <v>2339</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1228.674096850313</v>
+      </c>
+      <c r="D78" t="n">
+        <v>3425.016141650075</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B79" t="n">
+        <v>2362</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1203.963991641865</v>
+      </c>
+      <c r="D79" t="n">
+        <v>3430.309079789887</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B80" t="n">
+        <v>2386</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1307.201296102289</v>
+      </c>
+      <c r="D80" t="n">
+        <v>3460.535105368263</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B81" t="n">
+        <v>2409</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1301.558732077362</v>
+      </c>
+      <c r="D81" t="n">
+        <v>3450.645195299838</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B82" t="n">
+        <v>2433</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1350.201404348636</v>
+      </c>
+      <c r="D82" t="n">
+        <v>3483.612581156778</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B83" t="n">
+        <v>2456</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1387.402094021114</v>
+      </c>
+      <c r="D83" t="n">
+        <v>3445.224576080674</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B84" t="n">
+        <v>2479</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1374.292190866729</v>
+      </c>
+      <c r="D84" t="n">
+        <v>3515.788632116222</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B85" t="n">
+        <v>2503</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1454.190600742586</v>
+      </c>
+      <c r="D85" t="n">
+        <v>3637.551780780529</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B86" t="n">
+        <v>2526</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1450.00690603299</v>
+      </c>
+      <c r="D86" t="n">
+        <v>3566.89641152331</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B091HTG6DQ_po_data.xlsx
+++ b/po_analysis_by_asin/B091HTG6DQ_po_data.xlsx
@@ -1285,7 +1285,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:B86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1304,16 +1304,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1322,12 +1312,6 @@
       <c r="B2" t="n">
         <v>136</v>
       </c>
-      <c r="C2" t="n">
-        <v>-1019.710561551587</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1208.142410817111</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1336,12 +1320,6 @@
       <c r="B3" t="n">
         <v>160</v>
       </c>
-      <c r="C3" t="n">
-        <v>-923.8386116780616</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1264.281285489657</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1350,12 +1328,6 @@
       <c r="B4" t="n">
         <v>183</v>
       </c>
-      <c r="C4" t="n">
-        <v>-811.1700320671538</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1285.569360024796</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1364,12 +1336,6 @@
       <c r="B5" t="n">
         <v>206</v>
       </c>
-      <c r="C5" t="n">
-        <v>-898.0877855225391</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1343.899557685766</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1378,12 +1344,6 @@
       <c r="B6" t="n">
         <v>253</v>
       </c>
-      <c r="C6" t="n">
-        <v>-781.5075432704537</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1363.78921807806</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1392,12 +1352,6 @@
       <c r="B7" t="n">
         <v>300</v>
       </c>
-      <c r="C7" t="n">
-        <v>-796.1526197583029</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1369.952470827086</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1406,12 +1360,6 @@
       <c r="B8" t="n">
         <v>324</v>
       </c>
-      <c r="C8" t="n">
-        <v>-733.6881176857344</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1428.836863139327</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1420,12 +1368,6 @@
       <c r="B9" t="n">
         <v>347</v>
       </c>
-      <c r="C9" t="n">
-        <v>-686.5377827279358</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1411.150875724294</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1434,12 +1376,6 @@
       <c r="B10" t="n">
         <v>394</v>
       </c>
-      <c r="C10" t="n">
-        <v>-706.2651036296493</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1450.774707883298</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1448,12 +1384,6 @@
       <c r="B11" t="n">
         <v>417</v>
       </c>
-      <c r="C11" t="n">
-        <v>-561.369892059844</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1436.886759059493</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1462,12 +1392,6 @@
       <c r="B12" t="n">
         <v>441</v>
       </c>
-      <c r="C12" t="n">
-        <v>-546.4130556011286</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1512.416307196695</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1476,12 +1400,6 @@
       <c r="B13" t="n">
         <v>464</v>
       </c>
-      <c r="C13" t="n">
-        <v>-608.4590547113453</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1443.950710123981</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1490,12 +1408,6 @@
       <c r="B14" t="n">
         <v>488</v>
       </c>
-      <c r="C14" t="n">
-        <v>-605.0666749460955</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1547.834382943766</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1504,12 +1416,6 @@
       <c r="B15" t="n">
         <v>511</v>
       </c>
-      <c r="C15" t="n">
-        <v>-589.0269537892642</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1622.679417707264</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1518,12 +1424,6 @@
       <c r="B16" t="n">
         <v>534</v>
       </c>
-      <c r="C16" t="n">
-        <v>-581.6237158962268</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1566.0885273125</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1532,12 +1432,6 @@
       <c r="B17" t="n">
         <v>558</v>
       </c>
-      <c r="C17" t="n">
-        <v>-496.3433892326765</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1613.090997183738</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1546,12 +1440,6 @@
       <c r="B18" t="n">
         <v>628</v>
       </c>
-      <c r="C18" t="n">
-        <v>-433.0798608181824</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1748.640175554808</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1560,12 +1448,6 @@
       <c r="B19" t="n">
         <v>652</v>
       </c>
-      <c r="C19" t="n">
-        <v>-423.1402418773943</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1696.437079844617</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1574,12 +1456,6 @@
       <c r="B20" t="n">
         <v>675</v>
       </c>
-      <c r="C20" t="n">
-        <v>-470.7581577751814</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1679.026351590082</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1588,12 +1464,6 @@
       <c r="B21" t="n">
         <v>699</v>
       </c>
-      <c r="C21" t="n">
-        <v>-269.8390263352674</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1778.566805547465</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1602,12 +1472,6 @@
       <c r="B22" t="n">
         <v>722</v>
       </c>
-      <c r="C22" t="n">
-        <v>-274.5501566806174</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1844.441678678397</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1616,12 +1480,6 @@
       <c r="B23" t="n">
         <v>745</v>
       </c>
-      <c r="C23" t="n">
-        <v>-365.1587773600219</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1825.668673990429</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1630,12 +1488,6 @@
       <c r="B24" t="n">
         <v>769</v>
       </c>
-      <c r="C24" t="n">
-        <v>-301.9464805713115</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1917.965301257516</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1644,12 +1496,6 @@
       <c r="B25" t="n">
         <v>816</v>
       </c>
-      <c r="C25" t="n">
-        <v>-179.5908542251864</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1913.814646261444</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1658,12 +1504,6 @@
       <c r="B26" t="n">
         <v>863</v>
       </c>
-      <c r="C26" t="n">
-        <v>-212.083035157442</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1934.678470892075</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1672,12 +1512,6 @@
       <c r="B27" t="n">
         <v>886</v>
       </c>
-      <c r="C27" t="n">
-        <v>-210.6968322237452</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1856.577066504712</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1686,12 +1520,6 @@
       <c r="B28" t="n">
         <v>933</v>
       </c>
-      <c r="C28" t="n">
-        <v>-133.9163527571277</v>
-      </c>
-      <c r="D28" t="n">
-        <v>2039.227340888072</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1700,12 +1528,6 @@
       <c r="B29" t="n">
         <v>956</v>
       </c>
-      <c r="C29" t="n">
-        <v>-111.6570486859609</v>
-      </c>
-      <c r="D29" t="n">
-        <v>2055.334950027684</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1714,12 +1536,6 @@
       <c r="B30" t="n">
         <v>1003</v>
       </c>
-      <c r="C30" t="n">
-        <v>-82.81016162297871</v>
-      </c>
-      <c r="D30" t="n">
-        <v>2119.999379752697</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1728,12 +1544,6 @@
       <c r="B31" t="n">
         <v>1027</v>
       </c>
-      <c r="C31" t="n">
-        <v>-29.2558961968464</v>
-      </c>
-      <c r="D31" t="n">
-        <v>2015.12481827106</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1742,12 +1552,6 @@
       <c r="B32" t="n">
         <v>1050</v>
       </c>
-      <c r="C32" t="n">
-        <v>51.16267305871173</v>
-      </c>
-      <c r="D32" t="n">
-        <v>2103.362694790033</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1756,12 +1560,6 @@
       <c r="B33" t="n">
         <v>1073</v>
       </c>
-      <c r="C33" t="n">
-        <v>-41.44524747931837</v>
-      </c>
-      <c r="D33" t="n">
-        <v>2126.856069340157</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1770,12 +1568,6 @@
       <c r="B34" t="n">
         <v>1167</v>
       </c>
-      <c r="C34" t="n">
-        <v>60.03396507315716</v>
-      </c>
-      <c r="D34" t="n">
-        <v>2220.390173142905</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1784,12 +1576,6 @@
       <c r="B35" t="n">
         <v>1191</v>
       </c>
-      <c r="C35" t="n">
-        <v>111.0870424414452</v>
-      </c>
-      <c r="D35" t="n">
-        <v>2327.885966020684</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1798,12 +1584,6 @@
       <c r="B36" t="n">
         <v>1214</v>
       </c>
-      <c r="C36" t="n">
-        <v>159.5635766073236</v>
-      </c>
-      <c r="D36" t="n">
-        <v>2328.387228583072</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1812,12 +1592,6 @@
       <c r="B37" t="n">
         <v>1237</v>
       </c>
-      <c r="C37" t="n">
-        <v>245.5999198851346</v>
-      </c>
-      <c r="D37" t="n">
-        <v>2323.525357089067</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1826,12 +1600,6 @@
       <c r="B38" t="n">
         <v>1261</v>
       </c>
-      <c r="C38" t="n">
-        <v>210.5945100645924</v>
-      </c>
-      <c r="D38" t="n">
-        <v>2297.351434876816</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1840,12 +1608,6 @@
       <c r="B39" t="n">
         <v>1331</v>
       </c>
-      <c r="C39" t="n">
-        <v>308.783446092827</v>
-      </c>
-      <c r="D39" t="n">
-        <v>2391.987713470199</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1854,12 +1616,6 @@
       <c r="B40" t="n">
         <v>1355</v>
       </c>
-      <c r="C40" t="n">
-        <v>339.0572928542383</v>
-      </c>
-      <c r="D40" t="n">
-        <v>2463.21857287062</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1868,12 +1624,6 @@
       <c r="B41" t="n">
         <v>1378</v>
       </c>
-      <c r="C41" t="n">
-        <v>270.7723414993004</v>
-      </c>
-      <c r="D41" t="n">
-        <v>2484.092086283807</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1882,12 +1632,6 @@
       <c r="B42" t="n">
         <v>1402</v>
       </c>
-      <c r="C42" t="n">
-        <v>358.3940618588675</v>
-      </c>
-      <c r="D42" t="n">
-        <v>2354.698329143563</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1896,12 +1640,6 @@
       <c r="B43" t="n">
         <v>1425</v>
       </c>
-      <c r="C43" t="n">
-        <v>266.9551888471149</v>
-      </c>
-      <c r="D43" t="n">
-        <v>2456.78912073663</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1910,12 +1648,6 @@
       <c r="B44" t="n">
         <v>1448</v>
       </c>
-      <c r="C44" t="n">
-        <v>407.55506823853</v>
-      </c>
-      <c r="D44" t="n">
-        <v>2508.107696876227</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1924,12 +1656,6 @@
       <c r="B45" t="n">
         <v>1472</v>
       </c>
-      <c r="C45" t="n">
-        <v>363.4502129535528</v>
-      </c>
-      <c r="D45" t="n">
-        <v>2530.047671091711</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1938,12 +1664,6 @@
       <c r="B46" t="n">
         <v>1495</v>
       </c>
-      <c r="C46" t="n">
-        <v>346.6856471598484</v>
-      </c>
-      <c r="D46" t="n">
-        <v>2621.513763330339</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1952,12 +1672,6 @@
       <c r="B47" t="n">
         <v>1519</v>
       </c>
-      <c r="C47" t="n">
-        <v>410.2489276783133</v>
-      </c>
-      <c r="D47" t="n">
-        <v>2636.060132768826</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1966,12 +1680,6 @@
       <c r="B48" t="n">
         <v>1542</v>
       </c>
-      <c r="C48" t="n">
-        <v>495.4784660207414</v>
-      </c>
-      <c r="D48" t="n">
-        <v>2648.092111875223</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1980,12 +1688,6 @@
       <c r="B49" t="n">
         <v>1566</v>
       </c>
-      <c r="C49" t="n">
-        <v>464.078349548729</v>
-      </c>
-      <c r="D49" t="n">
-        <v>2638.005590842937</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1994,12 +1696,6 @@
       <c r="B50" t="n">
         <v>1589</v>
       </c>
-      <c r="C50" t="n">
-        <v>548.3906254607745</v>
-      </c>
-      <c r="D50" t="n">
-        <v>2656.416074700501</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -2008,12 +1704,6 @@
       <c r="B51" t="n">
         <v>1612</v>
       </c>
-      <c r="C51" t="n">
-        <v>518.948410794071</v>
-      </c>
-      <c r="D51" t="n">
-        <v>2766.249945660742</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -2022,12 +1712,6 @@
       <c r="B52" t="n">
         <v>1636</v>
       </c>
-      <c r="C52" t="n">
-        <v>490.157285330218</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2753.791713870463</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -2036,12 +1720,6 @@
       <c r="B53" t="n">
         <v>1659</v>
       </c>
-      <c r="C53" t="n">
-        <v>570.2493164914935</v>
-      </c>
-      <c r="D53" t="n">
-        <v>2646.920742481278</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -2050,12 +1728,6 @@
       <c r="B54" t="n">
         <v>1683</v>
       </c>
-      <c r="C54" t="n">
-        <v>576.1185222495171</v>
-      </c>
-      <c r="D54" t="n">
-        <v>2760.027326587056</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -2064,12 +1736,6 @@
       <c r="B55" t="n">
         <v>1706</v>
       </c>
-      <c r="C55" t="n">
-        <v>623.2336678990733</v>
-      </c>
-      <c r="D55" t="n">
-        <v>2766.390083962171</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -2078,12 +1744,6 @@
       <c r="B56" t="n">
         <v>1730</v>
       </c>
-      <c r="C56" t="n">
-        <v>625.479166175606</v>
-      </c>
-      <c r="D56" t="n">
-        <v>2741.053569804774</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -2092,12 +1752,6 @@
       <c r="B57" t="n">
         <v>1753</v>
       </c>
-      <c r="C57" t="n">
-        <v>653.0999613540989</v>
-      </c>
-      <c r="D57" t="n">
-        <v>2816.845852693689</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -2106,12 +1760,6 @@
       <c r="B58" t="n">
         <v>1776</v>
       </c>
-      <c r="C58" t="n">
-        <v>731.3067825200661</v>
-      </c>
-      <c r="D58" t="n">
-        <v>2854.357120639715</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -2120,12 +1768,6 @@
       <c r="B59" t="n">
         <v>1800</v>
       </c>
-      <c r="C59" t="n">
-        <v>624.1717999501366</v>
-      </c>
-      <c r="D59" t="n">
-        <v>2855.333955384375</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -2134,12 +1776,6 @@
       <c r="B60" t="n">
         <v>1823</v>
       </c>
-      <c r="C60" t="n">
-        <v>784.985300606537</v>
-      </c>
-      <c r="D60" t="n">
-        <v>2899.230162258582</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -2148,12 +1784,6 @@
       <c r="B61" t="n">
         <v>1847</v>
       </c>
-      <c r="C61" t="n">
-        <v>728.0335711652308</v>
-      </c>
-      <c r="D61" t="n">
-        <v>2908.164653392329</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -2162,12 +1792,6 @@
       <c r="B62" t="n">
         <v>1870</v>
       </c>
-      <c r="C62" t="n">
-        <v>854.4958023558954</v>
-      </c>
-      <c r="D62" t="n">
-        <v>2936.777874017107</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -2176,12 +1800,6 @@
       <c r="B63" t="n">
         <v>1894</v>
       </c>
-      <c r="C63" t="n">
-        <v>855.4319371148114</v>
-      </c>
-      <c r="D63" t="n">
-        <v>2992.695146353601</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -2190,12 +1808,6 @@
       <c r="B64" t="n">
         <v>1917</v>
       </c>
-      <c r="C64" t="n">
-        <v>813.2829867439596</v>
-      </c>
-      <c r="D64" t="n">
-        <v>3048.356713955393</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -2204,12 +1816,6 @@
       <c r="B65" t="n">
         <v>1964</v>
       </c>
-      <c r="C65" t="n">
-        <v>913.4786929544647</v>
-      </c>
-      <c r="D65" t="n">
-        <v>3039.524731329479</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -2218,12 +1824,6 @@
       <c r="B66" t="n">
         <v>1987</v>
       </c>
-      <c r="C66" t="n">
-        <v>900.409576594041</v>
-      </c>
-      <c r="D66" t="n">
-        <v>3044.547196753142</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -2232,12 +1832,6 @@
       <c r="B67" t="n">
         <v>2011</v>
       </c>
-      <c r="C67" t="n">
-        <v>971.4174366419354</v>
-      </c>
-      <c r="D67" t="n">
-        <v>3038.079333969632</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -2246,12 +1840,6 @@
       <c r="B68" t="n">
         <v>2034</v>
       </c>
-      <c r="C68" t="n">
-        <v>997.9864563085441</v>
-      </c>
-      <c r="D68" t="n">
-        <v>3149.75096277698</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -2260,12 +1848,6 @@
       <c r="B69" t="n">
         <v>2058</v>
       </c>
-      <c r="C69" t="n">
-        <v>992.4107314518574</v>
-      </c>
-      <c r="D69" t="n">
-        <v>3110.077998846202</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -2274,12 +1856,6 @@
       <c r="B70" t="n">
         <v>2081</v>
       </c>
-      <c r="C70" t="n">
-        <v>1036.114147150108</v>
-      </c>
-      <c r="D70" t="n">
-        <v>3146.153845713038</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -2288,12 +1864,6 @@
       <c r="B71" t="n">
         <v>2105</v>
       </c>
-      <c r="C71" t="n">
-        <v>1010.231981558529</v>
-      </c>
-      <c r="D71" t="n">
-        <v>3198.458064691179</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -2302,12 +1872,6 @@
       <c r="B72" t="n">
         <v>2175</v>
       </c>
-      <c r="C72" t="n">
-        <v>1166.522518698401</v>
-      </c>
-      <c r="D72" t="n">
-        <v>3286.166734689829</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -2316,12 +1880,6 @@
       <c r="B73" t="n">
         <v>2198</v>
       </c>
-      <c r="C73" t="n">
-        <v>1105.624009539906</v>
-      </c>
-      <c r="D73" t="n">
-        <v>3374.8731351469</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -2330,12 +1888,6 @@
       <c r="B74" t="n">
         <v>2222</v>
       </c>
-      <c r="C74" t="n">
-        <v>1187.554697442598</v>
-      </c>
-      <c r="D74" t="n">
-        <v>3394.72196755311</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -2344,12 +1896,6 @@
       <c r="B75" t="n">
         <v>2245</v>
       </c>
-      <c r="C75" t="n">
-        <v>1243.894812128134</v>
-      </c>
-      <c r="D75" t="n">
-        <v>3318.392272979681</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -2358,12 +1904,6 @@
       <c r="B76" t="n">
         <v>2269</v>
       </c>
-      <c r="C76" t="n">
-        <v>1152.337558714035</v>
-      </c>
-      <c r="D76" t="n">
-        <v>3334.153796713797</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -2372,12 +1912,6 @@
       <c r="B77" t="n">
         <v>2292</v>
       </c>
-      <c r="C77" t="n">
-        <v>1259.572196455808</v>
-      </c>
-      <c r="D77" t="n">
-        <v>3388.424546240827</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -2386,12 +1920,6 @@
       <c r="B78" t="n">
         <v>2339</v>
       </c>
-      <c r="C78" t="n">
-        <v>1228.674096850313</v>
-      </c>
-      <c r="D78" t="n">
-        <v>3425.016141650075</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -2400,12 +1928,6 @@
       <c r="B79" t="n">
         <v>2362</v>
       </c>
-      <c r="C79" t="n">
-        <v>1203.963991641865</v>
-      </c>
-      <c r="D79" t="n">
-        <v>3430.309079789887</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -2414,12 +1936,6 @@
       <c r="B80" t="n">
         <v>2386</v>
       </c>
-      <c r="C80" t="n">
-        <v>1307.201296102289</v>
-      </c>
-      <c r="D80" t="n">
-        <v>3460.535105368263</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -2428,12 +1944,6 @@
       <c r="B81" t="n">
         <v>2409</v>
       </c>
-      <c r="C81" t="n">
-        <v>1301.558732077362</v>
-      </c>
-      <c r="D81" t="n">
-        <v>3450.645195299838</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -2442,12 +1952,6 @@
       <c r="B82" t="n">
         <v>2433</v>
       </c>
-      <c r="C82" t="n">
-        <v>1350.201404348636</v>
-      </c>
-      <c r="D82" t="n">
-        <v>3483.612581156778</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -2456,12 +1960,6 @@
       <c r="B83" t="n">
         <v>2456</v>
       </c>
-      <c r="C83" t="n">
-        <v>1387.402094021114</v>
-      </c>
-      <c r="D83" t="n">
-        <v>3445.224576080674</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -2470,12 +1968,6 @@
       <c r="B84" t="n">
         <v>2479</v>
       </c>
-      <c r="C84" t="n">
-        <v>1374.292190866729</v>
-      </c>
-      <c r="D84" t="n">
-        <v>3515.788632116222</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -2484,12 +1976,6 @@
       <c r="B85" t="n">
         <v>2503</v>
       </c>
-      <c r="C85" t="n">
-        <v>1454.190600742586</v>
-      </c>
-      <c r="D85" t="n">
-        <v>3637.551780780529</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -2497,12 +1983,6 @@
       </c>
       <c r="B86" t="n">
         <v>2526</v>
-      </c>
-      <c r="C86" t="n">
-        <v>1450.00690603299</v>
-      </c>
-      <c r="D86" t="n">
-        <v>3566.89641152331</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B091HTG6DQ_po_data.xlsx
+++ b/po_analysis_by_asin/B091HTG6DQ_po_data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B78"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1067,6 +1067,14 @@
         <v>1860</v>
       </c>
     </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B79" t="n">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1078,7 +1086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1274,6 +1282,14 @@
         <v>11800</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45688.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1285,7 +1301,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1310,7 +1326,7 @@
         <v>44941.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>136</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3">
@@ -1318,7 +1334,7 @@
         <v>44948.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>160</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4">
@@ -1326,7 +1342,7 @@
         <v>44955.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>183</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5">
@@ -1334,7 +1350,7 @@
         <v>44962.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>206</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6">
@@ -1342,7 +1358,7 @@
         <v>44976.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>253</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7">
@@ -1350,7 +1366,7 @@
         <v>44990.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>300</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8">
@@ -1358,7 +1374,7 @@
         <v>44997.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>324</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9">
@@ -1366,7 +1382,7 @@
         <v>45004.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>347</v>
+        <v>404</v>
       </c>
     </row>
     <row r="10">
@@ -1374,7 +1390,7 @@
         <v>45018.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>394</v>
+        <v>447</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1398,7 @@
         <v>45025.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>417</v>
+        <v>468</v>
       </c>
     </row>
     <row r="12">
@@ -1390,7 +1406,7 @@
         <v>45032.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
     </row>
     <row r="13">
@@ -1398,7 +1414,7 @@
         <v>45039.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>464</v>
+        <v>510</v>
       </c>
     </row>
     <row r="14">
@@ -1406,7 +1422,7 @@
         <v>45046.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>488</v>
+        <v>532</v>
       </c>
     </row>
     <row r="15">
@@ -1414,7 +1430,7 @@
         <v>45053.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>511</v>
+        <v>553</v>
       </c>
     </row>
     <row r="16">
@@ -1422,7 +1438,7 @@
         <v>45060.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>534</v>
+        <v>574</v>
       </c>
     </row>
     <row r="17">
@@ -1430,7 +1446,7 @@
         <v>45067.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>558</v>
+        <v>595</v>
       </c>
     </row>
     <row r="18">
@@ -1438,7 +1454,7 @@
         <v>45088.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>628</v>
+        <v>659</v>
       </c>
     </row>
     <row r="19">
@@ -1446,7 +1462,7 @@
         <v>45095.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>652</v>
+        <v>680</v>
       </c>
     </row>
     <row r="20">
@@ -1454,7 +1470,7 @@
         <v>45102.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>675</v>
+        <v>701</v>
       </c>
     </row>
     <row r="21">
@@ -1462,7 +1478,7 @@
         <v>45109.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>699</v>
+        <v>722</v>
       </c>
     </row>
     <row r="22">
@@ -1470,7 +1486,7 @@
         <v>45116.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>722</v>
+        <v>744</v>
       </c>
     </row>
     <row r="23">
@@ -1478,7 +1494,7 @@
         <v>45123.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>745</v>
+        <v>765</v>
       </c>
     </row>
     <row r="24">
@@ -1486,7 +1502,7 @@
         <v>45130.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>769</v>
+        <v>786</v>
       </c>
     </row>
     <row r="25">
@@ -1494,7 +1510,7 @@
         <v>45144.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>816</v>
+        <v>828</v>
       </c>
     </row>
     <row r="26">
@@ -1502,7 +1518,7 @@
         <v>45158.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>863</v>
+        <v>871</v>
       </c>
     </row>
     <row r="27">
@@ -1510,7 +1526,7 @@
         <v>45165.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>886</v>
+        <v>892</v>
       </c>
     </row>
     <row r="28">
@@ -1518,7 +1534,7 @@
         <v>45179.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="29">
@@ -1534,7 +1550,7 @@
         <v>45200.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>1003</v>
+        <v>998</v>
       </c>
     </row>
     <row r="31">
@@ -1542,7 +1558,7 @@
         <v>45207.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>1027</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="32">
@@ -1550,7 +1566,7 @@
         <v>45214.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>1050</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="33">
@@ -1558,7 +1574,7 @@
         <v>45221.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>1073</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="34">
@@ -1566,7 +1582,7 @@
         <v>45249.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>1167</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="35">
@@ -1574,7 +1590,7 @@
         <v>45256.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>1191</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="36">
@@ -1582,7 +1598,7 @@
         <v>45263.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>1214</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="37">
@@ -1590,7 +1606,7 @@
         <v>45270.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>1237</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="38">
@@ -1598,7 +1614,7 @@
         <v>45277.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>1261</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="39">
@@ -1606,7 +1622,7 @@
         <v>45298.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>1331</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="40">
@@ -1614,7 +1630,7 @@
         <v>45305.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>1355</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="41">
@@ -1622,7 +1638,7 @@
         <v>45312.99999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>1378</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="42">
@@ -1630,7 +1646,7 @@
         <v>45319.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>1402</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1654,7 @@
         <v>45326.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>1425</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="44">
@@ -1646,7 +1662,7 @@
         <v>45333.99999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>1448</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="45">
@@ -1654,7 +1670,7 @@
         <v>45340.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>1472</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="46">
@@ -1662,7 +1678,7 @@
         <v>45347.99999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>1495</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="47">
@@ -1670,7 +1686,7 @@
         <v>45354.99999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>1519</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="48">
@@ -1678,7 +1694,7 @@
         <v>45361.99999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>1542</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="49">
@@ -1686,7 +1702,7 @@
         <v>45368.99999999999</v>
       </c>
       <c r="B49" t="n">
-        <v>1566</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="50">
@@ -1694,7 +1710,7 @@
         <v>45375.99999999999</v>
       </c>
       <c r="B50" t="n">
-        <v>1589</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="51">
@@ -1702,7 +1718,7 @@
         <v>45382.99999999999</v>
       </c>
       <c r="B51" t="n">
-        <v>1612</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="52">
@@ -1710,7 +1726,7 @@
         <v>45389.99999999999</v>
       </c>
       <c r="B52" t="n">
-        <v>1636</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="53">
@@ -1718,7 +1734,7 @@
         <v>45396.99999999999</v>
       </c>
       <c r="B53" t="n">
-        <v>1659</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="54">
@@ -1726,7 +1742,7 @@
         <v>45403.99999999999</v>
       </c>
       <c r="B54" t="n">
-        <v>1683</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="55">
@@ -1734,7 +1750,7 @@
         <v>45410.99999999999</v>
       </c>
       <c r="B55" t="n">
-        <v>1706</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="56">
@@ -1742,7 +1758,7 @@
         <v>45417.99999999999</v>
       </c>
       <c r="B56" t="n">
-        <v>1730</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="57">
@@ -1750,7 +1766,7 @@
         <v>45424.99999999999</v>
       </c>
       <c r="B57" t="n">
-        <v>1753</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="58">
@@ -1758,7 +1774,7 @@
         <v>45431.99999999999</v>
       </c>
       <c r="B58" t="n">
-        <v>1776</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="59">
@@ -1766,7 +1782,7 @@
         <v>45438.99999999999</v>
       </c>
       <c r="B59" t="n">
-        <v>1800</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="60">
@@ -1774,7 +1790,7 @@
         <v>45445.99999999999</v>
       </c>
       <c r="B60" t="n">
-        <v>1823</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="61">
@@ -1782,7 +1798,7 @@
         <v>45452.99999999999</v>
       </c>
       <c r="B61" t="n">
-        <v>1847</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="62">
@@ -1790,7 +1806,7 @@
         <v>45459.99999999999</v>
       </c>
       <c r="B62" t="n">
-        <v>1870</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="63">
@@ -1798,7 +1814,7 @@
         <v>45466.99999999999</v>
       </c>
       <c r="B63" t="n">
-        <v>1894</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="64">
@@ -1806,7 +1822,7 @@
         <v>45473.99999999999</v>
       </c>
       <c r="B64" t="n">
-        <v>1917</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="65">
@@ -1814,7 +1830,7 @@
         <v>45487.99999999999</v>
       </c>
       <c r="B65" t="n">
-        <v>1964</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="66">
@@ -1822,7 +1838,7 @@
         <v>45494.99999999999</v>
       </c>
       <c r="B66" t="n">
-        <v>1987</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="67">
@@ -1830,7 +1846,7 @@
         <v>45501.99999999999</v>
       </c>
       <c r="B67" t="n">
-        <v>2011</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="68">
@@ -1838,7 +1854,7 @@
         <v>45508.99999999999</v>
       </c>
       <c r="B68" t="n">
-        <v>2034</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="69">
@@ -1846,7 +1862,7 @@
         <v>45515.99999999999</v>
       </c>
       <c r="B69" t="n">
-        <v>2058</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="70">
@@ -1854,7 +1870,7 @@
         <v>45522.99999999999</v>
       </c>
       <c r="B70" t="n">
-        <v>2081</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="71">
@@ -1862,7 +1878,7 @@
         <v>45529.99999999999</v>
       </c>
       <c r="B71" t="n">
-        <v>2105</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="72">
@@ -1870,7 +1886,7 @@
         <v>45550.99999999999</v>
       </c>
       <c r="B72" t="n">
-        <v>2175</v>
+        <v>2058</v>
       </c>
     </row>
     <row r="73">
@@ -1878,7 +1894,7 @@
         <v>45557.99999999999</v>
       </c>
       <c r="B73" t="n">
-        <v>2198</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="74">
@@ -1886,7 +1902,7 @@
         <v>45564.99999999999</v>
       </c>
       <c r="B74" t="n">
-        <v>2222</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="75">
@@ -1894,7 +1910,7 @@
         <v>45571.99999999999</v>
       </c>
       <c r="B75" t="n">
-        <v>2245</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="76">
@@ -1902,7 +1918,7 @@
         <v>45578.99999999999</v>
       </c>
       <c r="B76" t="n">
-        <v>2269</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="77">
@@ -1910,7 +1926,7 @@
         <v>45585.99999999999</v>
       </c>
       <c r="B77" t="n">
-        <v>2292</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="78">
@@ -1918,71 +1934,79 @@
         <v>45599.99999999999</v>
       </c>
       <c r="B78" t="n">
-        <v>2339</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45606.99999999999</v>
+        <v>45669.99999999999</v>
       </c>
       <c r="B79" t="n">
-        <v>2362</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45613.99999999999</v>
+        <v>45676.99999999999</v>
       </c>
       <c r="B80" t="n">
-        <v>2386</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45620.99999999999</v>
+        <v>45683.99999999999</v>
       </c>
       <c r="B81" t="n">
-        <v>2409</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45627.99999999999</v>
+        <v>45690.99999999999</v>
       </c>
       <c r="B82" t="n">
-        <v>2433</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45634.99999999999</v>
+        <v>45697.99999999999</v>
       </c>
       <c r="B83" t="n">
-        <v>2456</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45641.99999999999</v>
+        <v>45704.99999999999</v>
       </c>
       <c r="B84" t="n">
-        <v>2479</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45648.99999999999</v>
+        <v>45711.99999999999</v>
       </c>
       <c r="B85" t="n">
-        <v>2503</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45655.99999999999</v>
+        <v>45718.99999999999</v>
       </c>
       <c r="B86" t="n">
-        <v>2526</v>
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45725.99999999999</v>
+      </c>
+      <c r="B87" t="n">
+        <v>2588</v>
       </c>
     </row>
   </sheetData>
